--- a/HazIDGen/data/excel/CMS_Safety-List_Preventive_Protective_Measures.xlsx
+++ b/HazIDGen/data/excel/CMS_Safety-List_Preventive_Protective_Measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waung\cernbox\WINDOWS\Desktop\Hazard_Identifier_CMS_Safety\HazIDGen\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A78D2-3BDD-480C-A49C-FA38436D3494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00680A-12FF-40D9-AB0E-8FBBAC0BEA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="21705" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="575">
   <si>
     <t>Hazards</t>
   </si>
@@ -1798,6 +1798,42 @@
   <si>
     <t xml:space="preserve">
 https://hse.cern/content/waste-management</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>All hazardous situations involving chemicals (product whether marketed or not, of natural origin or manufactured, used or emitted in different forms (solid, powder, liquid, gas, dust, smoke, fog, particles, fibers, etc.)), in the conditions of use and/or exposure.</t>
+  </si>
+  <si>
+    <t>All dangerous situations involving moving parts that can come into contact with a part of the human body and cause injury. These elements are often related to equipment or machines but can also relate to tools, parts, loads, projections of materials or fluids.</t>
+  </si>
+  <si>
+    <t>A type of low-energy radiation that does not have enough energy to remove an electron (negative particle) from an atom or molecule. Non-ionizing radiation includes visible, infrared and ultraviolet light; microwave; radio waves; and radio frequency energy from cell phones.</t>
+  </si>
+  <si>
+    <t>Ionizing radiation consists of charged particles (e.g. positive or negative electrons, protons or other heavy ions and/or uncharged particles (e.g. photons or neutrons) capable of causing process ionization primary or secondary Ionizing radiation can be direct and indirect.</t>
+  </si>
+  <si>
+    <t>Set of dangerous situations involving elements that can trigger an uncontrolled fire, the main characteristic of which is to spread.</t>
+  </si>
+  <si>
+    <t>All dangerous situations involving the risk of contact, direct or otherwise, with a bare live part, the risk of short circuits, and the risk of electric arcing. Its consequences are electrification, electrocution, fire, explosion …</t>
+  </si>
+  <si>
+    <t>All dangerous situations involving organisms or substances derived from an organism which represent a threat to health. This includes wastes, microorganisms, viruses or toxins.</t>
+  </si>
+  <si>
+    <t>All dangerous situations concerning the entire working environment as well as ergonomics.</t>
+  </si>
+  <si>
+    <t>Set of dangerous situations involving all elements that may have an impact on the response to emergency situations</t>
+  </si>
+  <si>
+    <t>Other hazards not indicated in this list</t>
+  </si>
+  <si>
+    <t>Activity interacting or likely to interact with the environment (environment in which an organism operates, including air, water, soil, natural resources, flora, fauna, humans and their interrelationships)</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2081,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8385,135 +8423,173 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8856BB-9CE8-4ACC-BEBD-D117D041DC38}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="61.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="101.5">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="145">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="116">
+      <c r="A4" s="27" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="72.5">
+      <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="116">
+      <c r="A6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="72.5">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="29">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="27" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="145">
+      <c r="A9" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="130.5">
+      <c r="A10" s="27" t="s">
         <v>547</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="145">
+      <c r="A11" s="27" t="s">
         <v>548</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="29">
+      <c r="A12" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="58">
+      <c r="A13" s="27" t="s">
         <v>550</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>559</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{053AA0FF-6877-47CA-A2E0-322696F756FC}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{E099FE3C-6F6D-4F2F-B851-810C7BF2B256}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{F47F55C9-04F7-4181-82FE-C380DB8B1575}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{D42380C6-CCD1-42F2-A482-45A0DAE9E74E}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{18F606C2-49B8-48FE-A1E8-63722E1FF0BD}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{C08792A6-5AF7-4ED1-A0E7-4C911E383C3F}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{29162940-2889-4252-B08F-CFA12EBE9D7E}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{CD80FADC-B8E2-41B9-B44A-AA7BC261E3E6}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{1249C4B6-913C-4B64-A60E-C616F622054C}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{888AA71B-42FC-4B2D-83D5-A8192B8715BC}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{1532ED18-9C12-4734-80A9-807E1F93192C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{053AA0FF-6877-47CA-A2E0-322696F756FC}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{E099FE3C-6F6D-4F2F-B851-810C7BF2B256}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{F47F55C9-04F7-4181-82FE-C380DB8B1575}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{D42380C6-CCD1-42F2-A482-45A0DAE9E74E}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{18F606C2-49B8-48FE-A1E8-63722E1FF0BD}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{C08792A6-5AF7-4ED1-A0E7-4C911E383C3F}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{29162940-2889-4252-B08F-CFA12EBE9D7E}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{CD80FADC-B8E2-41B9-B44A-AA7BC261E3E6}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{1249C4B6-913C-4B64-A60E-C616F622054C}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{888AA71B-42FC-4B2D-83D5-A8192B8715BC}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{1532ED18-9C12-4734-80A9-807E1F93192C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
